--- a/summaryVotePredictionModels_holdoutset.xlsx
+++ b/summaryVotePredictionModels_holdoutset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_VotingAggregation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8563109B-C58F-4805-A44C-D2E0937094ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DAFE6D-7DAB-4737-AA42-47D59F7875F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="7178" activeTab="4" xr2:uid="{17172B9F-2425-4985-BD43-C4C7130542FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="7178" tabRatio="869" activeTab="10" xr2:uid="{17172B9F-2425-4985-BD43-C4C7130542FC}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="171">
   <si>
     <t>Results from training different ML methods to predict the threshold "n" that indicates if a question covers a fault.</t>
   </si>
@@ -241,9 +241,6 @@
     <t xml:space="preserve">  1.00  1       0.6016007  0.9503526  0.3531785</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.00  2       0.6393799  0.8850063  0.5566535</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.00  3       0.5632631  0.7458534  0.7327899</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t xml:space="preserve">  1.00  1       0.6077026  0.9285008  0.3737374</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.00  2       0.7655981  0.8735835  0.5768921</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.00  3       0.6857370  0.8162877  0.6975187</t>
   </si>
   <si>
@@ -455,6 +449,129 @@
   </si>
   <si>
     <t xml:space="preserve">  0.8526932  0.9464095  0.3519598</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Sensitiviy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Hyper-parameters</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Max threshold</t>
+  </si>
+  <si>
+    <t>Min threshold</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>GLM</t>
+  </si>
+  <si>
+    <t>SVM Linear</t>
+  </si>
+  <si>
+    <t>SVM Linear 2</t>
+  </si>
+  <si>
+    <t>SVM Linear Weights</t>
+  </si>
+  <si>
+    <t>Bayes GLM</t>
+  </si>
+  <si>
+    <t>AM.1</t>
+  </si>
+  <si>
+    <t>AM.2</t>
+  </si>
+  <si>
+    <t>AM.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7373141  0.9644698  0.2 </t>
+  </si>
+  <si>
+    <t>0.7862716  0.9731959  0.1272727</t>
+  </si>
+  <si>
+    <t>0.7538838  0.955102  0.2272727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6016007  0.9503526  0.3531785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6093731  0.9690839  0.1559069</t>
+  </si>
+  <si>
+    <t>0.7673846  0.9285008  0.3737374</t>
+  </si>
+  <si>
+    <t>Final values for the model cost = 1 and weight = 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1.00  2     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  0.6393799  0.8850063  0.5566535</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.6393799  0.8850063  0.5566535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6886753  0.8696407  0.5791063</t>
+  </si>
+  <si>
+    <t>Final values for the model cost = 1 and weight = 2.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1.00  2      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 0.7655981  0.8735835  0.5768921</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7655981  0.8735835  0.5768921</t>
   </si>
 </sst>
 </file>
@@ -491,7 +608,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +618,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -645,11 +774,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -660,6 +810,57 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2CB4001-E8C7-44CA-A9BB-A5E9467F6052}" name="Table1" displayName="Table1" ref="B3:I11" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B3:I11" xr:uid="{779F2AB1-492F-4A3F-8764-B23C6934AA38}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9C741884-A7A5-4507-B313-29474FBBAE2D}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{02581FDB-E7BF-4CDD-A717-B60C9A2056CA}" name="Hyper-parameters"/>
+    <tableColumn id="3" xr3:uid="{96D452D4-358F-4FE2-935F-3C28D10FC3ED}" name="ROC"/>
+    <tableColumn id="4" xr3:uid="{02E4A108-7BC5-430F-9E56-61AA251E2FD4}" name="Sensitiviy"/>
+    <tableColumn id="5" xr3:uid="{455737C9-8EBD-4CAD-BC06-293290ACBFF0}" name="Specificity"/>
+    <tableColumn id="6" xr3:uid="{ED4572A9-08A3-4B04-AF59-4464029ADBC0}" name="Error"/>
+    <tableColumn id="7" xr3:uid="{BC4BD792-E741-4BBB-A371-C4436F6CD771}" name="Max threshold"/>
+    <tableColumn id="8" xr3:uid="{8702C136-6D5F-4282-B862-2F623B877E2C}" name="Min threshold"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5D5859A-64DA-4306-8EFE-9DE35FA7BA3C}" name="Table13" displayName="Table13" ref="B15:I23" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B15:I23" xr:uid="{0FA4A9D6-D37E-41B6-9DCB-04BC8626433A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5DF7AFE4-C157-4605-B717-10D1B7151790}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{CF0875DB-C216-4008-9DBB-3C6322318C8D}" name="Hyper-parameters"/>
+    <tableColumn id="3" xr3:uid="{FBABBDEC-099B-4E5D-A924-A62971F87DBD}" name="ROC"/>
+    <tableColumn id="4" xr3:uid="{E06E8967-0EB2-4487-8F07-41D2872B931E}" name="Sensitiviy"/>
+    <tableColumn id="5" xr3:uid="{E9623A23-A9D3-4D98-BA5B-050C960B7B0D}" name="Specificity"/>
+    <tableColumn id="6" xr3:uid="{4CA7ECC5-B446-4520-AB93-CAB392EC600F}" name="Error"/>
+    <tableColumn id="7" xr3:uid="{940E105C-0866-4E83-9B2B-C0350F4B4108}" name="Max threshold"/>
+    <tableColumn id="8" xr3:uid="{0C5E143F-E1A4-4DF9-87CC-794A29B8691A}" name="Min threshold"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEA6ED00-372F-473E-86A7-A1FAD000CD94}" name="Table134" displayName="Table134" ref="B26:I34" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B26:I34" xr:uid="{4071A98A-9B8F-454F-98CA-3B3B96010D64}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{15F49AF9-4268-479A-AE3E-663E847DFF19}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{462B6A13-580B-4B95-8465-99A5F46CBBEE}" name="Hyper-parameters"/>
+    <tableColumn id="3" xr3:uid="{C60D4BF0-8167-4494-8374-A803A3EB4AD8}" name="ROC"/>
+    <tableColumn id="4" xr3:uid="{9233DEE9-F594-4F97-A407-E387D3F18D28}" name="Sensitiviy"/>
+    <tableColumn id="5" xr3:uid="{5272C310-BB30-4DC0-B063-5B4283F689DA}" name="Specificity"/>
+    <tableColumn id="6" xr3:uid="{3F7FA1FB-F76D-4296-9BEA-DD1F87E32325}" name="Error"/>
+    <tableColumn id="7" xr3:uid="{1BF3C9D3-92D2-4968-8174-865F158AB08F}" name="Max threshold"/>
+    <tableColumn id="8" xr3:uid="{FB912703-7541-4ECF-A019-68CCCDE49511}" name="Min threshold"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -962,7 +1163,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -981,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A75EDD9-FA8A-4EAA-BA64-88C298486E2C}">
   <dimension ref="B1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1057,7 +1258,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1065,7 +1266,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
       <c r="P6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -1155,7 +1356,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1163,7 +1364,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
       <c r="P10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1181,7 +1382,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="I11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1189,7 +1390,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
       <c r="P11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -1207,10 +1408,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
@@ -1218,10 +1419,10 @@
         <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
@@ -1229,10 +1430,10 @@
         <v>65</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
@@ -1240,10 +1441,10 @@
         <v>66</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
@@ -1251,29 +1452,29 @@
         <v>67</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>118</v>
+        <v>68</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1281,18 +1482,18 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="P18" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1302,13 +1503,364 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55AC194-8843-4B46-935F-A3DF9CFDC7A7}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.9296875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0.5860649</v>
+      </c>
+      <c r="E4">
+        <v>0.85667219999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.51589739999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0.63291260000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.90811969999999997</v>
+      </c>
+      <c r="F16">
+        <v>0.42460320000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0.63323660000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.89907970000000004</v>
+      </c>
+      <c r="F27">
+        <v>0.56031750000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1317,7 +1869,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1381,7 +1933,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1449,7 +2001,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1467,7 +2019,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="I11" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1486,7 +2038,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="I14" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
@@ -1499,7 +2051,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="I15" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
@@ -1523,7 +2075,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="I17" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
@@ -1567,7 +2119,7 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1637,7 +2189,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1682,7 +2234,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1700,7 +2252,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -1718,7 +2270,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="15"/>
       <c r="I11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1735,7 +2287,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="I12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -1751,7 +2303,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1779,7 +2331,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1789,7 +2341,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1799,7 +2351,7 @@
     </row>
     <row r="20" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1809,7 +2361,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +2375,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1888,7 +2440,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1952,7 +2504,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1987,7 +2539,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2028,7 +2580,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2054,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD8369C-2B36-4B2D-B1CD-E8847EE64B5F}">
   <dimension ref="B1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2142,7 +2694,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
       <c r="P6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -2192,7 +2744,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2200,7 +2752,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
       <c r="P9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -2209,7 +2761,7 @@
       <c r="U9" s="11"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="10"/>
@@ -2217,16 +2769,16 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
-      <c r="I10" s="2" t="s">
-        <v>129</v>
+      <c r="I10" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
-      <c r="P10" s="2" t="s">
-        <v>77</v>
+      <c r="P10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -2244,7 +2796,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="I11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2252,7 +2804,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>
       <c r="P11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -2270,7 +2822,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="I12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -2278,7 +2830,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
       <c r="P12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
@@ -2291,10 +2843,10 @@
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="I13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
@@ -2307,10 +2859,10 @@
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="I14" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
@@ -2323,10 +2875,10 @@
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="I15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
@@ -2339,10 +2891,10 @@
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="I16" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
@@ -2355,10 +2907,10 @@
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="I17" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2371,10 +2923,10 @@
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="I18" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
@@ -2408,7 +2960,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2474,7 +3026,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2542,7 +3094,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2577,7 +3129,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2615,7 +3167,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2642,7 +3194,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2708,7 +3260,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2776,7 +3328,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2811,7 +3363,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2849,7 +3401,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2875,7 +3427,7 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2943,7 +3495,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2993,7 +3545,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -3011,7 +3563,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3054,7 +3606,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3092,7 +3644,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -3122,8 +3674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7343E12-5BB3-4E05-86A3-820D943E7119}">
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3193,7 +3745,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3260,8 +3812,8 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
-      <c r="I10" s="2" t="s">
-        <v>104</v>
+      <c r="I10" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3279,7 +3831,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="I11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -3297,15 +3849,15 @@
       <c r="F12" s="20"/>
       <c r="G12" s="15"/>
       <c r="I12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -3321,7 +3873,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3359,7 +3911,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -3369,7 +3921,7 @@
     </row>
     <row r="21" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -3378,8 +3930,8 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="3" t="s">
-        <v>91</v>
+      <c r="B22" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/summaryVotePredictionModels_holdoutset.xlsx
+++ b/summaryVotePredictionModels_holdoutset.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_VotingAggregation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DAFE6D-7DAB-4737-AA42-47D59F7875F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D82B1F-E747-442B-A2D5-5C21EE2AD2D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="7178" tabRatio="869" activeTab="10" xr2:uid="{17172B9F-2425-4985-BD43-C4C7130542FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="7178" tabRatio="869" firstSheet="2" activeTab="10" xr2:uid="{17172B9F-2425-4985-BD43-C4C7130542FC}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="Naive Bayes" sheetId="2" r:id="rId2"/>
     <sheet name="KNN" sheetId="3" r:id="rId3"/>
     <sheet name="RandomForest" sheetId="4" r:id="rId4"/>
-    <sheet name="XGBoostTree" sheetId="5" r:id="rId5"/>
+    <sheet name="GBM" sheetId="5" r:id="rId5"/>
     <sheet name="GLM" sheetId="6" r:id="rId6"/>
     <sheet name="BayesGLM" sheetId="7" r:id="rId7"/>
     <sheet name="SVM Linear" sheetId="8" r:id="rId8"/>
     <sheet name="SVM Linear-2" sheetId="9" r:id="rId9"/>
     <sheet name="SVMLinearWeights" sheetId="10" r:id="rId10"/>
-    <sheet name="Summary" sheetId="11" r:id="rId11"/>
+    <sheet name="Summary_Selection" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -34,8 +34,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chris</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{24771810-19E7-4F50-986A-E33E51C17EFA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Threshold(AM.3) = max(rankingVote(predictedBugCoveringQuestions))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{BF43F138-94FE-43EE-85AF-82213A155EF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Threshold(AM.3) = max(rankingVote(predictedBugCoveringQuestions))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{FBB57EE9-240A-4506-89A7-98E115BCF076}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Threshold(AM.3) = max(rankingVote(predictedBugCoveringQuestions))</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="178">
   <si>
     <t>Results from training different ML methods to predict the threshold "n" that indicates if a question covers a fault.</t>
   </si>
@@ -130,9 +212,6 @@
     <t>Tuning parameter 'mtry' was held constant at a value of 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Stochastic Gradient Boosting </t>
-  </si>
-  <si>
     <t>interaction.depth  n.trees  ROC        Sens  Spec</t>
   </si>
   <si>
@@ -472,9 +551,6 @@
     <t>Training</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>Max threshold</t>
   </si>
   <si>
@@ -500,33 +576,6 @@
   </si>
   <si>
     <t>Bayes GLM</t>
-  </si>
-  <si>
-    <t>AM.1</t>
-  </si>
-  <si>
-    <t>AM.2</t>
-  </si>
-  <si>
-    <t>AM.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7373141  0.9644698  0.2 </t>
-  </si>
-  <si>
-    <t>0.7862716  0.9731959  0.1272727</t>
-  </si>
-  <si>
-    <t>0.7538838  0.955102  0.2272727</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6016007  0.9503526  0.3531785</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6093731  0.9690839  0.1559069</t>
-  </si>
-  <si>
-    <t>0.7673846  0.9285008  0.3737374</t>
   </si>
   <si>
     <t>Final values for the model cost = 1 and weight = 2</t>
@@ -547,12 +596,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  0.6393799  0.8850063  0.5566535</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6886753  0.8696407  0.5791063</t>
-  </si>
-  <si>
     <t>Final values for the model cost = 1 and weight = 2.</t>
   </si>
   <si>
@@ -571,14 +614,78 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 0.7655981  0.8735835  0.5768921</t>
+    <t>k=5</t>
+  </si>
+  <si>
+    <t>AM.3 Ranking Vote</t>
+  </si>
+  <si>
+    <t>AM.2 Threshold Vote</t>
+  </si>
+  <si>
+    <t>AM.1 Majority Vote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient Boosting </t>
+  </si>
+  <si>
+    <t>cost=0.5</t>
+  </si>
+  <si>
+    <t>cost=0.5, weight=1</t>
+  </si>
+  <si>
+    <t>Threshold(AM.3) = max(rankingVote(predictedBugCoveringQuestions))</t>
+  </si>
+  <si>
+    <t>Error 
+(1-Accuracy)</t>
+  </si>
+  <si>
+    <t>k = 7</t>
+  </si>
+  <si>
+    <t>cost = 1 and weight = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cost = 0.25</t>
+  </si>
+  <si>
+    <t>cost = 0.25</t>
+  </si>
+  <si>
+    <t>Threshold is learned</t>
+  </si>
+  <si>
+    <t>Ranking is also learned</t>
+  </si>
+  <si>
+    <t>Do these three schemes of voting also present similar characteristics in Experiment-1?</t>
+  </si>
+  <si>
+    <t>Majority Vote should be Y-N&gt;n, because it is intuitive</t>
+  </si>
+  <si>
+    <t>n=-1</t>
+  </si>
+  <si>
+    <t>n=9</t>
+  </si>
+  <si>
+    <t>n=2</t>
+  </si>
+  <si>
+    <t>Models depend on the bug set used for learning.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,8 +714,41 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +770,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,10 +869,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -781,15 +928,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -812,52 +975,216 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32864</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>363927</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC341A2-B320-4A4C-A3F5-38441E79FC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7589963" y="163185"/>
+          <a:ext cx="2918988" cy="2173136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19136</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388054</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0B8506-AEE8-4C47-856B-70E853025152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7577401" y="2404208"/>
+          <a:ext cx="2944196" cy="2481365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52915</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>378254</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB57BAF-617D-4A29-AD3F-029A1DE91061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7611180" y="4965348"/>
+          <a:ext cx="2900617" cy="2610556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2CB4001-E8C7-44CA-A9BB-A5E9467F6052}" name="Table1" displayName="Table1" ref="B3:I11" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B3:I11" xr:uid="{779F2AB1-492F-4A3F-8764-B23C6934AA38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00478609-3902-48F3-B6ED-6BE90B51DAD5}" name="Table15" displayName="Table15" ref="B3:I11" totalsRowShown="0" headerRowDxfId="1">
+  <sortState ref="B4:I11">
+    <sortCondition descending="1" ref="E3:E11"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9C741884-A7A5-4507-B313-29474FBBAE2D}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{02581FDB-E7BF-4CDD-A717-B60C9A2056CA}" name="Hyper-parameters"/>
-    <tableColumn id="3" xr3:uid="{96D452D4-358F-4FE2-935F-3C28D10FC3ED}" name="ROC"/>
-    <tableColumn id="4" xr3:uid="{02E4A108-7BC5-430F-9E56-61AA251E2FD4}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{455737C9-8EBD-4CAD-BC06-293290ACBFF0}" name="Specificity"/>
-    <tableColumn id="6" xr3:uid="{ED4572A9-08A3-4B04-AF59-4464029ADBC0}" name="Error"/>
-    <tableColumn id="7" xr3:uid="{BC4BD792-E741-4BBB-A371-C4436F6CD771}" name="Max threshold"/>
-    <tableColumn id="8" xr3:uid="{8702C136-6D5F-4282-B862-2F623B877E2C}" name="Min threshold"/>
+    <tableColumn id="1" xr3:uid="{A2B85E31-4161-4E29-9985-C7A81C4883CE}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{D876F9EB-6EFA-40CA-BCBF-CE6ED8748F4C}" name="Hyper-parameters"/>
+    <tableColumn id="3" xr3:uid="{F381FA54-295A-46B2-951C-1F7206ADE90F}" name="ROC"/>
+    <tableColumn id="4" xr3:uid="{245A3E3E-C37F-4ADC-A168-0600E135CCB2}" name="Sensitiviy"/>
+    <tableColumn id="5" xr3:uid="{AE5E64D9-34F3-41E1-AEEF-C902C71F6EB5}" name="Specificity"/>
+    <tableColumn id="6" xr3:uid="{B1648D20-EF83-401E-A295-76E41947B6EC}" name="Error _x000a_(1-Accuracy)"/>
+    <tableColumn id="7" xr3:uid="{BE359A12-E78B-40A2-B493-3F8EC695ECA5}" name="Max threshold"/>
+    <tableColumn id="8" xr3:uid="{8275352C-600C-462E-A051-AA14DD9B68C7}" name="Min threshold"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5D5859A-64DA-4306-8EFE-9DE35FA7BA3C}" name="Table13" displayName="Table13" ref="B15:I23" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B15:I23" xr:uid="{0FA4A9D6-D37E-41B6-9DCB-04BC8626433A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D86DE48D-1468-4833-B95A-ED62028352A6}" name="Table136" displayName="Table136" ref="B15:I23" totalsRowShown="0" headerRowDxfId="3">
+  <sortState ref="B16:I23">
+    <sortCondition descending="1" ref="E15:E23"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5DF7AFE4-C157-4605-B717-10D1B7151790}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{CF0875DB-C216-4008-9DBB-3C6322318C8D}" name="Hyper-parameters"/>
-    <tableColumn id="3" xr3:uid="{FBABBDEC-099B-4E5D-A924-A62971F87DBD}" name="ROC"/>
-    <tableColumn id="4" xr3:uid="{E06E8967-0EB2-4487-8F07-41D2872B931E}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{E9623A23-A9D3-4D98-BA5B-050C960B7B0D}" name="Specificity"/>
-    <tableColumn id="6" xr3:uid="{4CA7ECC5-B446-4520-AB93-CAB392EC600F}" name="Error"/>
-    <tableColumn id="7" xr3:uid="{940E105C-0866-4E83-9B2B-C0350F4B4108}" name="Max threshold"/>
-    <tableColumn id="8" xr3:uid="{0C5E143F-E1A4-4DF9-87CC-794A29B8691A}" name="Min threshold"/>
+    <tableColumn id="1" xr3:uid="{F19B3E25-CC4D-4C5E-9B32-E41ED5449167}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{E6E4F4FB-A381-4583-AE64-8C8684A1C239}" name="Hyper-parameters"/>
+    <tableColumn id="3" xr3:uid="{E9142F1C-9718-484A-9184-B642B1394D0E}" name="ROC"/>
+    <tableColumn id="4" xr3:uid="{D9438571-4B00-45FD-9410-FF72F6691D8F}" name="Sensitiviy"/>
+    <tableColumn id="5" xr3:uid="{D116C1E3-6A43-4665-8F14-353615933513}" name="Specificity"/>
+    <tableColumn id="6" xr3:uid="{AAFE194D-5965-4AD8-82F3-81BBC4C29076}" name="Error _x000a_(1-Accuracy)"/>
+    <tableColumn id="7" xr3:uid="{B7EC0AF3-9EC5-4E0C-9C5E-59B3D8F9442F}" name="Max threshold"/>
+    <tableColumn id="8" xr3:uid="{6A489855-92EF-4F2D-954F-6658E3412D7E}" name="Min threshold"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEA6ED00-372F-473E-86A7-A1FAD000CD94}" name="Table134" displayName="Table134" ref="B26:I34" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B26:I34" xr:uid="{4071A98A-9B8F-454F-98CA-3B3B96010D64}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6172E1A-4884-4475-B682-2A688ABC72FF}" name="Table1347" displayName="Table1347" ref="B27:I35" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B27:I35" xr:uid="{ECBDF144-1149-4EC5-9218-2E08B1B0C3CE}"/>
+  <sortState ref="B28:I35">
+    <sortCondition descending="1" ref="E27:E35"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{15F49AF9-4268-479A-AE3E-663E847DFF19}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{462B6A13-580B-4B95-8465-99A5F46CBBEE}" name="Hyper-parameters"/>
-    <tableColumn id="3" xr3:uid="{C60D4BF0-8167-4494-8374-A803A3EB4AD8}" name="ROC"/>
-    <tableColumn id="4" xr3:uid="{9233DEE9-F594-4F97-A407-E387D3F18D28}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{5272C310-BB30-4DC0-B063-5B4283F689DA}" name="Specificity"/>
-    <tableColumn id="6" xr3:uid="{3F7FA1FB-F76D-4296-9BEA-DD1F87E32325}" name="Error"/>
-    <tableColumn id="7" xr3:uid="{1BF3C9D3-92D2-4968-8174-865F158AB08F}" name="Max threshold"/>
-    <tableColumn id="8" xr3:uid="{FB912703-7541-4ECF-A019-68CCCDE49511}" name="Min threshold"/>
+    <tableColumn id="1" xr3:uid="{CFF640B0-7089-4726-8CEA-490A3AF32217}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{F3D5ED43-3CAC-4599-A2CB-706259DBB28E}" name="Hyper-parameters"/>
+    <tableColumn id="3" xr3:uid="{A54C3C2A-2CE4-4CA6-BF67-B75C082B34EC}" name="ROC"/>
+    <tableColumn id="4" xr3:uid="{0AA7E538-E94F-4024-8D09-EBBE59F159BD}" name="Sensitiviy"/>
+    <tableColumn id="5" xr3:uid="{E12A3C08-A7CF-4D6A-A803-1BD69F92B532}" name="Specificity"/>
+    <tableColumn id="6" xr3:uid="{99A9FA81-4BF2-478D-841D-7B03064D513D}" name="Error _x000a_(1-Accuracy)" dataDxfId="0">
+      <calculatedColumnFormula>1-0.925</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C8BC0044-89B7-4216-A854-1E44204ABC57}" name="Max threshold"/>
+    <tableColumn id="8" xr3:uid="{3FC09439-5911-4AB0-A8D9-DB9A47987E3C}" name="Min threshold"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1190,7 +1517,7 @@
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.45">
@@ -1258,7 +1585,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1266,7 +1593,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
       <c r="P6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -1322,7 +1649,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1330,7 +1657,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1338,7 +1665,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
       <c r="P9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -1348,7 +1675,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1356,7 +1683,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1364,7 +1691,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
       <c r="P10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1374,7 +1701,7 @@
     </row>
     <row r="11" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1382,7 +1709,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="I11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1390,7 +1717,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
       <c r="P11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -1400,7 +1727,7 @@
     </row>
     <row r="12" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1408,73 +1735,73 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="I12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>116</v>
+        <v>67</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1482,18 +1809,18 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="P18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1502,364 +1829,778 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55AC194-8843-4B46-935F-A3DF9CFDC7A7}">
-  <dimension ref="B2:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597CA850-86EC-494E-8F5F-FCF87E07E57B}">
+  <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="0.86328125" customWidth="1"/>
     <col min="2" max="2" width="17.9296875" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" customWidth="1"/>
+    <col min="7" max="7" width="13.53125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="3" spans="2:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="23" t="s">
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="C4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0.75038439999999995</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.96060610000000002</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.20714289999999999</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2</v>
+      </c>
+      <c r="I4" s="29">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.67746649999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.956229</v>
+      </c>
+      <c r="F5">
+        <v>0.23015869999999999</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.83929860000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.956229</v>
+      </c>
+      <c r="F6">
+        <v>0.23015869999999999</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.84885739999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.93312059999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.38601190000000002</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.83548319999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.92388840000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.45017859999999998</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.60938389999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.92121209999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.41428569999999998</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.62433499999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.89384470000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.4809524</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0.5860649</v>
-      </c>
-      <c r="E4">
-        <v>0.85667219999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.51589739999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D11" s="2">
+        <v>0.7502453</v>
+      </c>
+      <c r="E11">
+        <v>0.82767900000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.62334659999999997</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="E15" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="34">
+        <v>0.74628729999999999</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.98208960000000001</v>
+      </c>
+      <c r="F16" s="34">
+        <v>7.6923080000000005E-2</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="29">
+        <v>11</v>
+      </c>
+      <c r="I16" s="29">
+        <v>-1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.70436920000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.96856489999999995</v>
+      </c>
+      <c r="F17" s="2">
+        <v>9.6923079999999995E-2</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.70436920000000003</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.9441967</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.17794872</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.85257099999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.93948949999999998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.26608969999999998</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.78560680000000005</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.90871369999999996</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.36461539999999998</v>
+      </c>
+      <c r="G20" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.48106539999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.90686350000000004</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.30051280000000002</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.55055299999999996</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.87305679999999997</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.45846150000000002</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.70756149999999995</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.83336390000000005</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.39525640000000001</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="2:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F27" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="G27" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="O27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="C28" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0.76172620000000002</v>
+      </c>
+      <c r="E28" s="34">
+        <v>0.97538460000000005</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0.1142857</v>
+      </c>
+      <c r="G28" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="29">
+        <v>15</v>
+      </c>
+      <c r="I28" s="29">
+        <v>9</v>
+      </c>
+      <c r="O28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.59648409999999996</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.9726496</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.1343915</v>
+      </c>
+      <c r="G29" s="36">
+        <f>1-0.825</f>
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.67126249999999998</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.96067639999999999</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.2214286</v>
+      </c>
+      <c r="G30" s="36">
+        <f>1-0.875</f>
+        <v>0.125</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.50987729999999998</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.94887330000000003</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.26825399999999999</v>
+      </c>
+      <c r="G31" s="36">
+        <f>1-0.875</f>
+        <v>0.125</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="O31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.82883189999999995</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.94311469999999997</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.32565480000000002</v>
+      </c>
+      <c r="G32" s="36">
+        <f>1-0.875</f>
+        <v>0.125</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.80842530000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.92462540000000004</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.3782143</v>
+      </c>
+      <c r="G33" s="36">
+        <f>1-0.875</f>
+        <v>0.125</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>0.63323660000000004</v>
+      </c>
+      <c r="E34">
+        <v>0.89907970000000004</v>
+      </c>
+      <c r="F34">
+        <v>0.56031750000000002</v>
+      </c>
+      <c r="G34" s="37">
+        <f>1-0.925</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>0.63291260000000005</v>
-      </c>
-      <c r="E16">
-        <v>0.90811969999999997</v>
-      </c>
-      <c r="F16">
-        <v>0.42460320000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>0.63323660000000004</v>
-      </c>
-      <c r="E27">
-        <v>0.89907970000000004</v>
-      </c>
-      <c r="F27">
-        <v>0.56031750000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" t="s">
-        <v>170</v>
+      <c r="D35" s="2">
+        <v>0.71809900000000004</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.85497219999999996</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.44649470000000002</v>
+      </c>
+      <c r="G35" s="37">
+        <f>1-0.925</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="O36" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1933,7 +2674,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2001,7 +2742,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2019,7 +2760,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="I11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -2038,7 +2779,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="I14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
@@ -2051,7 +2792,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="I15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
@@ -2075,7 +2816,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="I17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
@@ -2189,7 +2930,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2234,7 +2975,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2252,7 +2993,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -2270,7 +3011,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="15"/>
       <c r="I11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -2287,7 +3028,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="I12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -2303,7 +3044,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2331,7 +3072,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -2341,7 +3082,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -2351,7 +3092,7 @@
     </row>
     <row r="20" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2361,7 +3102,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +3181,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2458,7 +3199,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -2486,7 +3227,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2504,7 +3245,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2539,7 +3280,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2552,7 +3293,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2570,7 +3311,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -2580,7 +3321,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2606,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD8369C-2B36-4B2D-B1CD-E8847EE64B5F}">
   <dimension ref="B1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2617,7 +3358,7 @@
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.45">
@@ -2694,7 +3435,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
       <c r="P6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -2736,7 +3477,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -2744,7 +3485,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2752,7 +3493,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
       <c r="P9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -2762,7 +3503,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2770,7 +3511,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2778,7 +3519,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
       <c r="P10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -2788,7 +3529,7 @@
     </row>
     <row r="11" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2796,7 +3537,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="I11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2804,7 +3545,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>
       <c r="P11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -2814,7 +3555,7 @@
     </row>
     <row r="12" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2822,7 +3563,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="I12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -2830,12 +3571,12 @@
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
       <c r="P12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2843,15 +3584,15 @@
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="I13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2859,15 +3600,15 @@
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="I14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2875,15 +3616,15 @@
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="I15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2891,15 +3632,15 @@
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="I16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -2907,15 +3648,15 @@
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="I17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -2923,20 +3664,20 @@
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="I18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.45">
@@ -2946,7 +3687,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +3708,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
@@ -3026,7 +3767,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3036,7 +3777,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3044,7 +3785,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -3068,7 +3809,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3076,7 +3817,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -3086,7 +3827,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -3094,7 +3835,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3129,7 +3870,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3139,7 +3880,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3157,7 +3898,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -3167,7 +3908,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -3201,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
@@ -3260,7 +4001,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3270,7 +4011,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3278,7 +4019,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -3302,7 +4043,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3310,7 +4051,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -3320,7 +4061,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -3328,7 +4069,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3363,7 +4104,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3373,7 +4114,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3391,7 +4132,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -3401,7 +4142,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -3434,7 +4175,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
@@ -3448,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
@@ -3495,7 +4236,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3505,7 +4246,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3513,7 +4254,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="I7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -3537,7 +4278,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3545,7 +4286,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -3555,7 +4296,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -3563,7 +4304,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3587,10 +4328,10 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -3606,7 +4347,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3616,7 +4357,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3634,7 +4375,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -3644,7 +4385,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -3662,7 +4403,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
@@ -3707,7 +4448,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3745,7 +4486,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3787,7 +4528,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3795,7 +4536,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -3805,7 +4546,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -3813,7 +4554,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="I10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3823,7 +4564,7 @@
     </row>
     <row r="11" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -3831,7 +4572,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="I11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -3841,7 +4582,7 @@
     </row>
     <row r="12" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -3849,15 +4590,15 @@
       <c r="F12" s="20"/>
       <c r="G12" s="15"/>
       <c r="I12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -3873,7 +4614,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3901,7 +4642,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -3911,7 +4652,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -3921,7 +4662,7 @@
     </row>
     <row r="21" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -3930,8 +4671,8 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="29" t="s">
-        <v>90</v>
+      <c r="B22" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/summaryVotePredictionModels_holdoutset.xlsx
+++ b/summaryVotePredictionModels_holdoutset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_VotingAggregation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D82B1F-E747-442B-A2D5-5C21EE2AD2D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F09C4-5ECA-4C54-886C-75EC63ECBD2A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="7178" tabRatio="869" firstSheet="2" activeTab="10" xr2:uid="{17172B9F-2425-4985-BD43-C4C7130542FC}"/>
   </bookViews>
@@ -539,9 +539,6 @@
     <t>Sensitiviy</t>
   </si>
   <si>
-    <t>Specificity</t>
-  </si>
-  <si>
     <t>Hyper-parameters</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
     <t>AM.3 Ranking Vote</t>
   </si>
   <si>
-    <t>AM.2 Threshold Vote</t>
-  </si>
-  <si>
     <t>AM.1 Majority Vote</t>
   </si>
   <si>
@@ -676,6 +670,13 @@
   </si>
   <si>
     <t>Models depend on the bug set used for learning.</t>
+  </si>
+  <si>
+    <t>Specificity 
+(recall)</t>
+  </si>
+  <si>
+    <t>AM.2 Minimal Yes</t>
   </si>
 </sst>
 </file>
@@ -683,7 +684,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -943,7 +944,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,7 +1132,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00478609-3902-48F3-B6ED-6BE90B51DAD5}" name="Table15" displayName="Table15" ref="B3:I11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00478609-3902-48F3-B6ED-6BE90B51DAD5}" name="Table15" displayName="Table15" ref="B3:I11" totalsRowShown="0" headerRowDxfId="3">
   <sortState ref="B4:I11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
@@ -1140,7 +1141,7 @@
     <tableColumn id="2" xr3:uid="{D876F9EB-6EFA-40CA-BCBF-CE6ED8748F4C}" name="Hyper-parameters"/>
     <tableColumn id="3" xr3:uid="{F381FA54-295A-46B2-951C-1F7206ADE90F}" name="ROC"/>
     <tableColumn id="4" xr3:uid="{245A3E3E-C37F-4ADC-A168-0600E135CCB2}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{AE5E64D9-34F3-41E1-AEEF-C902C71F6EB5}" name="Specificity"/>
+    <tableColumn id="5" xr3:uid="{AE5E64D9-34F3-41E1-AEEF-C902C71F6EB5}" name="Specificity _x000a_(recall)"/>
     <tableColumn id="6" xr3:uid="{B1648D20-EF83-401E-A295-76E41947B6EC}" name="Error _x000a_(1-Accuracy)"/>
     <tableColumn id="7" xr3:uid="{BE359A12-E78B-40A2-B493-3F8EC695ECA5}" name="Max threshold"/>
     <tableColumn id="8" xr3:uid="{8275352C-600C-462E-A051-AA14DD9B68C7}" name="Min threshold"/>
@@ -1150,7 +1151,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D86DE48D-1468-4833-B95A-ED62028352A6}" name="Table136" displayName="Table136" ref="B15:I23" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D86DE48D-1468-4833-B95A-ED62028352A6}" name="Table136" displayName="Table136" ref="B15:I23" totalsRowShown="0" headerRowDxfId="2">
   <sortState ref="B16:I23">
     <sortCondition descending="1" ref="E15:E23"/>
   </sortState>
@@ -1159,7 +1160,7 @@
     <tableColumn id="2" xr3:uid="{E6E4F4FB-A381-4583-AE64-8C8684A1C239}" name="Hyper-parameters"/>
     <tableColumn id="3" xr3:uid="{E9142F1C-9718-484A-9184-B642B1394D0E}" name="ROC"/>
     <tableColumn id="4" xr3:uid="{D9438571-4B00-45FD-9410-FF72F6691D8F}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{D116C1E3-6A43-4665-8F14-353615933513}" name="Specificity"/>
+    <tableColumn id="5" xr3:uid="{D116C1E3-6A43-4665-8F14-353615933513}" name="Specificity _x000a_(recall)"/>
     <tableColumn id="6" xr3:uid="{AAFE194D-5965-4AD8-82F3-81BBC4C29076}" name="Error _x000a_(1-Accuracy)"/>
     <tableColumn id="7" xr3:uid="{B7EC0AF3-9EC5-4E0C-9C5E-59B3D8F9442F}" name="Max threshold"/>
     <tableColumn id="8" xr3:uid="{6A489855-92EF-4F2D-954F-6658E3412D7E}" name="Min threshold"/>
@@ -1169,7 +1170,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6172E1A-4884-4475-B682-2A688ABC72FF}" name="Table1347" displayName="Table1347" ref="B27:I35" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6172E1A-4884-4475-B682-2A688ABC72FF}" name="Table1347" displayName="Table1347" ref="B27:I35" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B27:I35" xr:uid="{ECBDF144-1149-4EC5-9218-2E08B1B0C3CE}"/>
   <sortState ref="B28:I35">
     <sortCondition descending="1" ref="E27:E35"/>
@@ -1179,7 +1180,7 @@
     <tableColumn id="2" xr3:uid="{F3D5ED43-3CAC-4599-A2CB-706259DBB28E}" name="Hyper-parameters"/>
     <tableColumn id="3" xr3:uid="{A54C3C2A-2CE4-4CA6-BF67-B75C082B34EC}" name="ROC"/>
     <tableColumn id="4" xr3:uid="{0AA7E538-E94F-4024-8D09-EBBE59F159BD}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{E12A3C08-A7CF-4D6A-A803-1BD69F92B532}" name="Specificity"/>
+    <tableColumn id="5" xr3:uid="{E12A3C08-A7CF-4D6A-A803-1BD69F92B532}" name="Specificity _x000a_(recall)"/>
     <tableColumn id="6" xr3:uid="{99A9FA81-4BF2-478D-841D-7B03064D513D}" name="Error _x000a_(1-Accuracy)" dataDxfId="0">
       <calculatedColumnFormula>1-0.925</calculatedColumnFormula>
     </tableColumn>
@@ -1787,13 +1788,13 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
@@ -1814,13 +1815,13 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>99</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1832,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597CA850-86EC-494E-8F5F-FCF87E07E57B}">
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1850,15 +1851,15 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1868,7 +1869,7 @@
         <v>137</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>138</v>
@@ -1876,25 +1877,25 @@
       <c r="E3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>140</v>
+      <c r="F3" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H3" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>144</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="34">
         <v>0.75038439999999995</v>
@@ -1915,15 +1916,15 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2">
         <v>0.67746649999999997</v>
@@ -1944,15 +1945,15 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2">
         <v>0.83929860000000001</v>
@@ -1975,7 +1976,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="2">
         <v>0.84885739999999998</v>
@@ -1998,7 +1999,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2">
         <v>0.83548319999999998</v>
@@ -2021,7 +2022,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2">
         <v>0.60938389999999998</v>
@@ -2067,7 +2068,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2">
         <v>0.7502453</v>
@@ -2090,7 +2091,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="E12" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -2099,15 +2100,15 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2117,7 +2118,7 @@
         <v>137</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>138</v>
@@ -2125,28 +2126,28 @@
       <c r="E15" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>140</v>
+      <c r="F15" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H15" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>145</v>
-      </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="34">
         <v>0.74628729999999999</v>
@@ -2167,15 +2168,15 @@
         <v>-1</v>
       </c>
       <c r="O16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2">
         <v>0.70436920000000003</v>
@@ -2198,10 +2199,10 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2">
         <v>0.70436920000000003</v>
@@ -2224,7 +2225,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="2">
         <v>0.85257099999999997</v>
@@ -2247,7 +2248,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="2">
         <v>0.78560680000000005</v>
@@ -2270,7 +2271,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="2">
         <v>0.48106539999999998</v>
@@ -2316,7 +2317,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="2">
         <v>0.70756149999999995</v>
@@ -2339,15 +2340,15 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -2357,7 +2358,7 @@
         <v>137</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>138</v>
@@ -2365,28 +2366,28 @@
       <c r="E27" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>140</v>
+      <c r="F27" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H27" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="I27" s="33" t="s">
-        <v>145</v>
-      </c>
       <c r="O27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="34">
         <v>0.76172620000000002</v>
@@ -2407,15 +2408,15 @@
         <v>9</v>
       </c>
       <c r="O28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="2">
         <v>0.59648409999999996</v>
@@ -2439,10 +2440,10 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D30" s="2">
         <v>0.67126249999999998</v>
@@ -2466,7 +2467,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="2">
         <v>0.50987729999999998</v>
@@ -2488,12 +2489,12 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="2">
         <v>0.82883189999999995</v>
@@ -2517,7 +2518,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="2">
         <v>0.80842530000000001</v>
@@ -2565,7 +2566,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="2">
         <v>0.71809900000000004</v>
@@ -2589,7 +2590,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="O36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3359,7 @@
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.45">

--- a/summaryVotePredictionModels_holdoutset.xlsx
+++ b/summaryVotePredictionModels_holdoutset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_VotingAggregation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F09C4-5ECA-4C54-886C-75EC63ECBD2A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A162AB-4287-4B29-85CE-53E3B11BF8A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="7178" tabRatio="869" firstSheet="2" activeTab="10" xr2:uid="{17172B9F-2425-4985-BD43-C4C7130542FC}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
   <si>
     <t>Results from training different ML methods to predict the threshold "n" that indicates if a question covers a fault.</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>ROC</t>
-  </si>
-  <si>
-    <t>Sensitiviy</t>
   </si>
   <si>
     <t>Hyper-parameters</t>
@@ -639,9 +636,6 @@
     <t>k = 7</t>
   </si>
   <si>
-    <t>cost = 1 and weight = 1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> cost = 0.25</t>
   </si>
   <si>
@@ -672,11 +666,28 @@
     <t>Models depend on the bug set used for learning.</t>
   </si>
   <si>
-    <t>Specificity 
-(recall)</t>
-  </si>
-  <si>
     <t>AM.2 Minimal Yes</t>
+  </si>
+  <si>
+    <t>Sensitiviy (recall)</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>cost = 1, weight = 1</t>
+  </si>
+  <si>
+    <t>AM.1</t>
+  </si>
+  <si>
+    <t>AM.2</t>
+  </si>
+  <si>
+    <t>AM.3</t>
+  </si>
+  <si>
+    <t>Training - Sensitiviy (recall)</t>
   </si>
 </sst>
 </file>
@@ -686,7 +697,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +756,31 @@
     <font>
       <sz val="10"/>
       <color rgb="FFC00000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
@@ -874,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -945,12 +981,91 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1088,8 +1203,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>378254</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8821</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1118,8 +1233,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7611180" y="4965348"/>
-          <a:ext cx="2900617" cy="2610556"/>
+          <a:off x="7607431" y="4822914"/>
+          <a:ext cx="2920902" cy="2398227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,16 +1247,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00478609-3902-48F3-B6ED-6BE90B51DAD5}" name="Table15" displayName="Table15" ref="B3:I11" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00478609-3902-48F3-B6ED-6BE90B51DAD5}" name="Table15" displayName="Table15" ref="B3:I11" totalsRowShown="0" headerRowDxfId="9">
   <sortState ref="B4:I11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A2B85E31-4161-4E29-9985-C7A81C4883CE}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{D876F9EB-6EFA-40CA-BCBF-CE6ED8748F4C}" name="Hyper-parameters"/>
+    <tableColumn id="2" xr3:uid="{D876F9EB-6EFA-40CA-BCBF-CE6ED8748F4C}" name="Hyper-parameters" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{F381FA54-295A-46B2-951C-1F7206ADE90F}" name="ROC"/>
-    <tableColumn id="4" xr3:uid="{245A3E3E-C37F-4ADC-A168-0600E135CCB2}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{AE5E64D9-34F3-41E1-AEEF-C902C71F6EB5}" name="Specificity _x000a_(recall)"/>
+    <tableColumn id="4" xr3:uid="{245A3E3E-C37F-4ADC-A168-0600E135CCB2}" name="Sensitiviy (recall)"/>
+    <tableColumn id="5" xr3:uid="{AE5E64D9-34F3-41E1-AEEF-C902C71F6EB5}" name="Specificity"/>
     <tableColumn id="6" xr3:uid="{B1648D20-EF83-401E-A295-76E41947B6EC}" name="Error _x000a_(1-Accuracy)"/>
     <tableColumn id="7" xr3:uid="{BE359A12-E78B-40A2-B493-3F8EC695ECA5}" name="Max threshold"/>
     <tableColumn id="8" xr3:uid="{8275352C-600C-462E-A051-AA14DD9B68C7}" name="Min threshold"/>
@@ -1151,16 +1266,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D86DE48D-1468-4833-B95A-ED62028352A6}" name="Table136" displayName="Table136" ref="B15:I23" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D86DE48D-1468-4833-B95A-ED62028352A6}" name="Table136" displayName="Table136" ref="B15:I23" totalsRowShown="0" headerRowDxfId="8">
   <sortState ref="B16:I23">
     <sortCondition descending="1" ref="E15:E23"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F19B3E25-CC4D-4C5E-9B32-E41ED5449167}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{E6E4F4FB-A381-4583-AE64-8C8684A1C239}" name="Hyper-parameters"/>
+    <tableColumn id="2" xr3:uid="{E6E4F4FB-A381-4583-AE64-8C8684A1C239}" name="Hyper-parameters" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{E9142F1C-9718-484A-9184-B642B1394D0E}" name="ROC"/>
-    <tableColumn id="4" xr3:uid="{D9438571-4B00-45FD-9410-FF72F6691D8F}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{D116C1E3-6A43-4665-8F14-353615933513}" name="Specificity _x000a_(recall)"/>
+    <tableColumn id="4" xr3:uid="{D9438571-4B00-45FD-9410-FF72F6691D8F}" name="Sensitiviy (recall)"/>
+    <tableColumn id="5" xr3:uid="{D116C1E3-6A43-4665-8F14-353615933513}" name="Specificity"/>
     <tableColumn id="6" xr3:uid="{AAFE194D-5965-4AD8-82F3-81BBC4C29076}" name="Error _x000a_(1-Accuracy)"/>
     <tableColumn id="7" xr3:uid="{B7EC0AF3-9EC5-4E0C-9C5E-59B3D8F9442F}" name="Max threshold"/>
     <tableColumn id="8" xr3:uid="{6A489855-92EF-4F2D-954F-6658E3412D7E}" name="Min threshold"/>
@@ -1170,7 +1285,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6172E1A-4884-4475-B682-2A688ABC72FF}" name="Table1347" displayName="Table1347" ref="B27:I35" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6172E1A-4884-4475-B682-2A688ABC72FF}" name="Table1347" displayName="Table1347" ref="B27:I35" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B27:I35" xr:uid="{ECBDF144-1149-4EC5-9218-2E08B1B0C3CE}"/>
   <sortState ref="B28:I35">
     <sortCondition descending="1" ref="E27:E35"/>
@@ -1179,13 +1294,28 @@
     <tableColumn id="1" xr3:uid="{CFF640B0-7089-4726-8CEA-490A3AF32217}" name="Model"/>
     <tableColumn id="2" xr3:uid="{F3D5ED43-3CAC-4599-A2CB-706259DBB28E}" name="Hyper-parameters"/>
     <tableColumn id="3" xr3:uid="{A54C3C2A-2CE4-4CA6-BF67-B75C082B34EC}" name="ROC"/>
-    <tableColumn id="4" xr3:uid="{0AA7E538-E94F-4024-8D09-EBBE59F159BD}" name="Sensitiviy"/>
-    <tableColumn id="5" xr3:uid="{E12A3C08-A7CF-4D6A-A803-1BD69F92B532}" name="Specificity _x000a_(recall)"/>
-    <tableColumn id="6" xr3:uid="{99A9FA81-4BF2-478D-841D-7B03064D513D}" name="Error _x000a_(1-Accuracy)" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{0AA7E538-E94F-4024-8D09-EBBE59F159BD}" name="Sensitiviy (recall)"/>
+    <tableColumn id="5" xr3:uid="{E12A3C08-A7CF-4D6A-A803-1BD69F92B532}" name="Specificity"/>
+    <tableColumn id="6" xr3:uid="{99A9FA81-4BF2-478D-841D-7B03064D513D}" name="Error _x000a_(1-Accuracy)" dataDxfId="6">
       <calculatedColumnFormula>1-0.925</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{C8BC0044-89B7-4216-A854-1E44204ABC57}" name="Max threshold"/>
     <tableColumn id="8" xr3:uid="{3FC09439-5911-4AB0-A8D9-DB9A47987E3C}" name="Min threshold"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9A25783-CEC5-47AB-9AA3-2990FED1873F}" name="Table13472" displayName="Table13472" ref="B40:E48" totalsRowShown="0" headerRowDxfId="3">
+  <sortState ref="B41:E48">
+    <sortCondition descending="1" ref="D27:D35"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{246AFE9E-0F17-481A-A9D4-F5BC2209200D}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{17D0D454-9B90-4AFE-821B-9541A2B720C7}" name="AM.1" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{68049C1D-67CD-4A58-B639-8E9E06A6EB02}" name="AM.2" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{D17D3D0D-7573-4B8D-B520-C756116EA3EA}" name="AM.3" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1788,13 +1918,13 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.45">
@@ -1815,13 +1945,13 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>99</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1831,19 +1961,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597CA850-86EC-494E-8F5F-FCF87E07E57B}">
-  <dimension ref="B2:O36"/>
+  <dimension ref="B2:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0.86328125" customWidth="1"/>
-    <col min="2" max="2" width="17.9296875" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.9296875" customWidth="1"/>
+    <col min="4" max="4" width="6.73046875" customWidth="1"/>
+    <col min="5" max="5" width="5.86328125" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
     <col min="7" max="7" width="13.53125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
@@ -1851,15 +1982,15 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1869,33 +2000,33 @@
         <v>137</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>139</v>
+      <c r="E3" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>176</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="D4" s="34">
         <v>0.75038439999999995</v>
@@ -1916,15 +2047,15 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="D5" s="2">
         <v>0.67746649999999997</v>
@@ -1945,15 +2076,15 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="D6" s="2">
         <v>0.83929860000000001</v>
@@ -1976,8 +2107,9 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C7" s="38"/>
       <c r="D7" s="2">
         <v>0.84885739999999998</v>
       </c>
@@ -1999,8 +2131,9 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>147</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C8" s="38"/>
       <c r="D8" s="2">
         <v>0.83548319999999998</v>
       </c>
@@ -2022,8 +2155,9 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C9" s="38"/>
       <c r="D9" s="2">
         <v>0.60938389999999998</v>
       </c>
@@ -2047,6 +2181,7 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="38"/>
       <c r="D10" s="2">
         <v>0.62433499999999997</v>
       </c>
@@ -2068,8 +2203,9 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>146</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C11" s="38"/>
       <c r="D11" s="2">
         <v>0.7502453</v>
       </c>
@@ -2090,25 +2226,30 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C12" s="38"/>
       <c r="E12" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C13" s="38"/>
+    </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C14" s="38"/>
       <c r="D14" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2117,37 +2258,37 @@
       <c r="B15" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>140</v>
+      <c r="C15" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>139</v>
+      <c r="E15" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>176</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>144</v>
-      </c>
       <c r="O15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>164</v>
+        <v>144</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="D16" s="34">
         <v>0.74628729999999999</v>
@@ -2168,15 +2309,15 @@
         <v>-1</v>
       </c>
       <c r="O16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="D17" s="2">
         <v>0.70436920000000003</v>
@@ -2199,10 +2340,10 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="D18" s="2">
         <v>0.70436920000000003</v>
@@ -2225,8 +2366,9 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C19" s="38"/>
       <c r="D19" s="2">
         <v>0.85257099999999997</v>
       </c>
@@ -2248,8 +2390,9 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>147</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C20" s="38"/>
       <c r="D20" s="2">
         <v>0.78560680000000005</v>
       </c>
@@ -2271,8 +2414,9 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C21" s="38"/>
       <c r="D21" s="2">
         <v>0.48106539999999998</v>
       </c>
@@ -2296,6 +2440,7 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
+      <c r="C22" s="38"/>
       <c r="D22" s="2">
         <v>0.55055299999999996</v>
       </c>
@@ -2317,8 +2462,9 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>146</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C23" s="38"/>
       <c r="D23" s="2">
         <v>0.70756149999999995</v>
       </c>
@@ -2338,17 +2484,24 @@
         <v>-2</v>
       </c>
     </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C25" s="38"/>
+    </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C26" s="38"/>
       <c r="D26" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -2357,37 +2510,37 @@
       <c r="B27" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>140</v>
+      <c r="C27" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>139</v>
+      <c r="E27" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>176</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H27" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="33" t="s">
-        <v>144</v>
-      </c>
       <c r="O27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="D28" s="34">
         <v>0.76172620000000002</v>
@@ -2408,15 +2561,15 @@
         <v>9</v>
       </c>
       <c r="O28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>165</v>
       </c>
       <c r="D29" s="2">
         <v>0.59648409999999996</v>
@@ -2440,10 +2593,10 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="D30" s="2">
         <v>0.67126249999999998</v>
@@ -2467,8 +2620,9 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C31" s="38"/>
       <c r="D31" s="2">
         <v>0.50987729999999998</v>
       </c>
@@ -2489,13 +2643,14 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C32" s="38"/>
       <c r="D32" s="2">
         <v>0.82883189999999995</v>
       </c>
@@ -2518,8 +2673,9 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>147</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C33" s="38"/>
       <c r="D33" s="2">
         <v>0.80842530000000001</v>
       </c>
@@ -2544,14 +2700,14 @@
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="D34">
-        <v>0.63323660000000004</v>
-      </c>
-      <c r="E34">
-        <v>0.89907970000000004</v>
-      </c>
-      <c r="F34">
-        <v>0.56031750000000002</v>
+      <c r="D34" s="2">
+        <v>0.63291260000000005</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.90811969999999997</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.42460320000000001</v>
       </c>
       <c r="G34" s="37">
         <f>1-0.925</f>
@@ -2566,7 +2722,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="2">
         <v>0.71809900000000004</v>
@@ -2590,7 +2746,141 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="O36" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="44">
+        <v>0.98208960000000001</v>
+      </c>
+      <c r="D41" s="44">
+        <v>0.97538460000000005</v>
+      </c>
+      <c r="E41" s="45">
+        <v>0.96060610000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="46">
+        <v>0.96856489999999995</v>
+      </c>
+      <c r="D42" s="46">
+        <v>0.9726496</v>
+      </c>
+      <c r="E42" s="47">
+        <v>0.956229</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="46">
+        <v>0.9441967</v>
+      </c>
+      <c r="D43" s="46">
+        <v>0.96067639999999999</v>
+      </c>
+      <c r="E43" s="47">
+        <v>0.956229</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="46">
+        <v>0.93948949999999998</v>
+      </c>
+      <c r="D44" s="46">
+        <v>0.94887330000000003</v>
+      </c>
+      <c r="E44" s="47">
+        <v>0.93312059999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="46">
+        <v>0.90871369999999996</v>
+      </c>
+      <c r="D45" s="46">
+        <v>0.94311469999999997</v>
+      </c>
+      <c r="E45" s="47">
+        <v>0.92388840000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="46">
+        <v>0.90686350000000004</v>
+      </c>
+      <c r="D46" s="46">
+        <v>0.92462540000000004</v>
+      </c>
+      <c r="E46" s="47">
+        <v>0.92121209999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="46">
+        <v>0.87305679999999997</v>
+      </c>
+      <c r="D47" s="46">
+        <v>0.90811969999999997</v>
+      </c>
+      <c r="E47" s="47">
+        <v>0.89384470000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="46">
+        <v>0.83336390000000005</v>
+      </c>
+      <c r="D48" s="46">
+        <v>0.85497219999999996</v>
+      </c>
+      <c r="E48" s="47">
+        <v>0.82767900000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2598,10 +2888,11 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3359,7 +3650,7 @@
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.45">
